--- a/PWL_POS BARU/public/template_barang.xlsx
+++ b/PWL_POS BARU/public/template_barang.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="21708" windowHeight="8400"/>
   </bookViews>
   <sheets>
     <sheet name="template_barang" sheetId="1" r:id="rId1"/>
@@ -44,10 +44,10 @@
     <t>harga_jual</t>
   </si>
   <si>
-    <t>TV005</t>
-  </si>
-  <si>
-    <t>TV Polytron 32 Inch</t>
+    <t>TV010</t>
+  </si>
+  <si>
+    <t>TV Sharp 32 Inch</t>
   </si>
   <si>
     <t>M0010</t>
@@ -1241,7 +1241,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -1263,7 +1263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="43.2" spans="1:5">
+    <row r="2" ht="28.8" spans="1:5">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1274,10 +1274,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="E2" s="2">
-        <v>400000</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:5">
@@ -1294,7 +1294,7 @@
         <v>7000</v>
       </c>
       <c r="E3" s="2">
-        <v>5500</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="4" ht="43.2" spans="1:5">
@@ -1311,7 +1311,7 @@
         <v>600000</v>
       </c>
       <c r="E4" s="2">
-        <v>500000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="5" ht="43.2" spans="1:5">
@@ -1328,7 +1328,7 @@
         <v>60000</v>
       </c>
       <c r="E5" s="2">
-        <v>51000</v>
+        <v>71000</v>
       </c>
     </row>
     <row r="6" ht="28.8" spans="1:5">
@@ -1345,7 +1345,7 @@
         <v>60000</v>
       </c>
       <c r="E6" s="2">
-        <v>55000</v>
+        <v>65000</v>
       </c>
     </row>
   </sheetData>
